--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tgm2-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tgm2-Itgb3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>49.64919533333333</v>
+        <v>42.32036466666667</v>
       </c>
       <c r="H2">
-        <v>148.947586</v>
+        <v>126.961094</v>
       </c>
       <c r="I2">
-        <v>0.3395122080556415</v>
+        <v>0.285778576657872</v>
       </c>
       <c r="J2">
-        <v>0.3481792173559851</v>
+        <v>0.2880046678857171</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N2">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O2">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P2">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q2">
-        <v>236.731037389788</v>
+        <v>284.0748835534711</v>
       </c>
       <c r="R2">
-        <v>2130.579336508092</v>
+        <v>2556.673951981239</v>
       </c>
       <c r="S2">
-        <v>0.17700806279294</v>
+        <v>0.1809117745592115</v>
       </c>
       <c r="T2">
-        <v>0.1866753362270842</v>
+        <v>0.1847407060259574</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>49.64919533333333</v>
+        <v>42.32036466666667</v>
       </c>
       <c r="H3">
-        <v>148.947586</v>
+        <v>126.961094</v>
       </c>
       <c r="I3">
-        <v>0.3395122080556415</v>
+        <v>0.285778576657872</v>
       </c>
       <c r="J3">
-        <v>0.3481792173559851</v>
+        <v>0.2880046678857171</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O3">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P3">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q3">
-        <v>153.0611211317573</v>
+        <v>130.4674208533627</v>
       </c>
       <c r="R3">
-        <v>1377.550090185816</v>
+        <v>1174.206787680264</v>
       </c>
       <c r="S3">
-        <v>0.1144465585889273</v>
+        <v>0.08308757301418566</v>
       </c>
       <c r="T3">
-        <v>0.1206970432166823</v>
+        <v>0.08484609107407809</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>49.64919533333333</v>
+        <v>42.32036466666667</v>
       </c>
       <c r="H4">
-        <v>148.947586</v>
+        <v>126.961094</v>
       </c>
       <c r="I4">
-        <v>0.3395122080556415</v>
+        <v>0.285778576657872</v>
       </c>
       <c r="J4">
-        <v>0.3481792173559851</v>
+        <v>0.2880046678857171</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N4">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O4">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P4">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q4">
-        <v>9.003964322358888</v>
+        <v>10.55934008119178</v>
       </c>
       <c r="R4">
-        <v>81.03567890123</v>
+        <v>95.034060730726</v>
       </c>
       <c r="S4">
-        <v>0.006732426384518708</v>
+        <v>0.006724666849693657</v>
       </c>
       <c r="T4">
-        <v>0.007100117017970379</v>
+        <v>0.00686699196129521</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>49.64919533333333</v>
+        <v>42.32036466666667</v>
       </c>
       <c r="H5">
-        <v>148.947586</v>
+        <v>126.961094</v>
       </c>
       <c r="I5">
-        <v>0.3395122080556415</v>
+        <v>0.285778576657872</v>
       </c>
       <c r="J5">
-        <v>0.3481792173559851</v>
+        <v>0.2880046678857171</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N5">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O5">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P5">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q5">
-        <v>37.57029084666333</v>
+        <v>17.63263181709033</v>
       </c>
       <c r="R5">
-        <v>225.42174507998</v>
+        <v>105.795790902542</v>
       </c>
       <c r="S5">
-        <v>0.02809198352130432</v>
+        <v>0.01122925994820864</v>
       </c>
       <c r="T5">
-        <v>0.0197508158155093</v>
+        <v>0.007644615415573172</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>49.64919533333333</v>
+        <v>42.32036466666667</v>
       </c>
       <c r="H6">
-        <v>148.947586</v>
+        <v>126.961094</v>
       </c>
       <c r="I6">
-        <v>0.3395122080556415</v>
+        <v>0.285778576657872</v>
       </c>
       <c r="J6">
-        <v>0.3481792173559851</v>
+        <v>0.2880046678857171</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N6">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O6">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P6">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q6">
-        <v>17.69808456637422</v>
+        <v>6.006642211445778</v>
       </c>
       <c r="R6">
-        <v>159.282761097368</v>
+        <v>54.059779903012</v>
       </c>
       <c r="S6">
-        <v>0.01323317676795121</v>
+        <v>0.003825302286572545</v>
       </c>
       <c r="T6">
-        <v>0.01395590507873893</v>
+        <v>0.003906263408813257</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>18.719806</v>
       </c>
       <c r="I7">
-        <v>0.04267006159759612</v>
+        <v>0.04213668412459876</v>
       </c>
       <c r="J7">
-        <v>0.04375933559699231</v>
+        <v>0.04246491062777905</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N7">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O7">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P7">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q7">
-        <v>29.752473424548</v>
+        <v>41.88548272586221</v>
       </c>
       <c r="R7">
-        <v>267.772260820932</v>
+        <v>376.9693445327599</v>
       </c>
       <c r="S7">
-        <v>0.02224646054968393</v>
+        <v>0.02667457577881436</v>
       </c>
       <c r="T7">
-        <v>0.0234614482382802</v>
+        <v>0.02723913340813645</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>18.719806</v>
       </c>
       <c r="I8">
-        <v>0.04267006159759612</v>
+        <v>0.04213668412459876</v>
       </c>
       <c r="J8">
-        <v>0.04375933559699231</v>
+        <v>0.04246491062777905</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O8">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P8">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q8">
         <v>19.23679712223733</v>
@@ -948,10 +948,10 @@
         <v>173.131174100136</v>
       </c>
       <c r="S8">
-        <v>0.01438369987515173</v>
+        <v>0.01225086519683258</v>
       </c>
       <c r="T8">
-        <v>0.01516926386299344</v>
+        <v>0.01251015027300469</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>18.719806</v>
       </c>
       <c r="I9">
-        <v>0.04267006159759612</v>
+        <v>0.04213668412459876</v>
       </c>
       <c r="J9">
-        <v>0.04375933559699231</v>
+        <v>0.04246491062777905</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N9">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O9">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P9">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q9">
-        <v>1.131622672592222</v>
+        <v>1.556924185041555</v>
       </c>
       <c r="R9">
-        <v>10.18460405333</v>
+        <v>14.012317665374</v>
       </c>
       <c r="S9">
-        <v>0.0008461346653007965</v>
+        <v>0.0009915199599721187</v>
       </c>
       <c r="T9">
-        <v>0.0008923462052866302</v>
+        <v>0.001012505116874669</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>18.719806</v>
       </c>
       <c r="I10">
-        <v>0.04267006159759612</v>
+        <v>0.04213668412459876</v>
       </c>
       <c r="J10">
-        <v>0.04375933559699231</v>
+        <v>0.04246491062777905</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N10">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O10">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P10">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q10">
-        <v>4.721852665763333</v>
+        <v>2.599847216859667</v>
       </c>
       <c r="R10">
-        <v>28.33111599458</v>
+        <v>15.599083301158</v>
       </c>
       <c r="S10">
-        <v>0.003530614330829194</v>
+        <v>0.001655700664914212</v>
       </c>
       <c r="T10">
-        <v>0.002482292263589058</v>
+        <v>0.001127161975495731</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>18.719806</v>
       </c>
       <c r="I11">
-        <v>0.04267006159759612</v>
+        <v>0.04213668412459876</v>
       </c>
       <c r="J11">
-        <v>0.04375933559699231</v>
+        <v>0.04246491062777905</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N11">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O11">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P11">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q11">
-        <v>2.224303988747555</v>
+        <v>0.8856506616875555</v>
       </c>
       <c r="R11">
-        <v>20.018735898728</v>
+        <v>7.970855955187999</v>
       </c>
       <c r="S11">
-        <v>0.001663152176630466</v>
+        <v>0.000564022524065478</v>
       </c>
       <c r="T11">
-        <v>0.001753985026842983</v>
+        <v>0.0005759598542675038</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>30.021123</v>
+        <v>42.241047</v>
       </c>
       <c r="H12">
-        <v>90.06336899999999</v>
+        <v>126.723141</v>
       </c>
       <c r="I12">
-        <v>0.205291096655437</v>
+        <v>0.2852429647825406</v>
       </c>
       <c r="J12">
-        <v>0.2105317324905372</v>
+        <v>0.2874648838260633</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N12">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O12">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P12">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q12">
-        <v>143.142936027102</v>
+        <v>283.54246477354</v>
       </c>
       <c r="R12">
-        <v>1288.286424243918</v>
+        <v>2551.88218296186</v>
       </c>
       <c r="S12">
-        <v>0.1070305528502874</v>
+        <v>0.1805727061238711</v>
       </c>
       <c r="T12">
-        <v>0.1128760132427991</v>
+        <v>0.1843944613313346</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>30.021123</v>
+        <v>42.241047</v>
       </c>
       <c r="H13">
-        <v>90.06336899999999</v>
+        <v>126.723141</v>
       </c>
       <c r="I13">
-        <v>0.205291096655437</v>
+        <v>0.2852429647825406</v>
       </c>
       <c r="J13">
-        <v>0.2105317324905372</v>
+        <v>0.2874648838260633</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O13">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P13">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q13">
-        <v>92.55067908279601</v>
+        <v>130.222896226044</v>
       </c>
       <c r="R13">
-        <v>832.956111745164</v>
+        <v>1172.006066034396</v>
       </c>
       <c r="S13">
-        <v>0.06920181060856317</v>
+        <v>0.08293184863722459</v>
       </c>
       <c r="T13">
-        <v>0.0729812589271034</v>
+        <v>0.08468707084769794</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>30.021123</v>
+        <v>42.241047</v>
       </c>
       <c r="H14">
-        <v>90.06336899999999</v>
+        <v>126.723141</v>
       </c>
       <c r="I14">
-        <v>0.205291096655437</v>
+        <v>0.2852429647825406</v>
       </c>
       <c r="J14">
-        <v>0.2105317324905372</v>
+        <v>0.2874648838260633</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N14">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O14">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P14">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q14">
-        <v>5.444380691255</v>
+        <v>10.539549556621</v>
       </c>
       <c r="R14">
-        <v>48.999426221295</v>
+        <v>94.855946009589</v>
       </c>
       <c r="S14">
-        <v>0.004070861556186915</v>
+        <v>0.006712063345734522</v>
       </c>
       <c r="T14">
-        <v>0.004293191156066443</v>
+        <v>0.006854121708789619</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>30.021123</v>
+        <v>42.241047</v>
       </c>
       <c r="H15">
-        <v>90.06336899999999</v>
+        <v>126.723141</v>
       </c>
       <c r="I15">
-        <v>0.205291096655437</v>
+        <v>0.2852429647825406</v>
       </c>
       <c r="J15">
-        <v>0.2105317324905372</v>
+        <v>0.2874648838260633</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N15">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O15">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P15">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q15">
-        <v>22.717434090945</v>
+        <v>17.5995843888855</v>
       </c>
       <c r="R15">
-        <v>136.30460454567</v>
+        <v>105.597506333313</v>
       </c>
       <c r="S15">
-        <v>0.01698623486130988</v>
+        <v>0.01120821384653866</v>
       </c>
       <c r="T15">
-        <v>0.01194262398346792</v>
+        <v>0.007630287725769381</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>30.021123</v>
+        <v>42.241047</v>
       </c>
       <c r="H16">
-        <v>90.06336899999999</v>
+        <v>126.723141</v>
       </c>
       <c r="I16">
-        <v>0.205291096655437</v>
+        <v>0.2852429647825406</v>
       </c>
       <c r="J16">
-        <v>0.2105317324905372</v>
+        <v>0.2874648838260633</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N16">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O16">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P16">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q16">
-        <v>10.701409560908</v>
+        <v>5.995384443502001</v>
       </c>
       <c r="R16">
-        <v>96.312686048172</v>
+        <v>53.958459991518</v>
       </c>
       <c r="S16">
-        <v>0.008001636779089638</v>
+        <v>0.003818132829171706</v>
       </c>
       <c r="T16">
-        <v>0.008438645181100405</v>
+        <v>0.003898942212471664</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.9205495</v>
+        <v>3.4338745</v>
       </c>
       <c r="H17">
-        <v>21.841099</v>
+        <v>6.867749</v>
       </c>
       <c r="I17">
-        <v>0.074677139257415</v>
+        <v>0.02318807445921414</v>
       </c>
       <c r="J17">
-        <v>0.05105565628982123</v>
+        <v>0.0155791330048516</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N17">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O17">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P17">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q17">
-        <v>52.06998813666301</v>
+        <v>23.04983679625666</v>
       </c>
       <c r="R17">
-        <v>312.419928819978</v>
+        <v>138.29902077754</v>
       </c>
       <c r="S17">
-        <v>0.03893366848448439</v>
+        <v>0.01467918186201101</v>
       </c>
       <c r="T17">
-        <v>0.0273733506456025</v>
+        <v>0.009993240914173775</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>10.9205495</v>
+        <v>3.4338745</v>
       </c>
       <c r="H18">
-        <v>21.841099</v>
+        <v>6.867749</v>
       </c>
       <c r="I18">
-        <v>0.074677139257415</v>
+        <v>0.02318807445921414</v>
       </c>
       <c r="J18">
-        <v>0.05105565628982123</v>
+        <v>0.0155791330048516</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O18">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P18">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q18">
-        <v>33.666437867174</v>
+        <v>10.586126870074</v>
       </c>
       <c r="R18">
-        <v>201.998627203044</v>
+        <v>63.516761220444</v>
       </c>
       <c r="S18">
-        <v>0.02517300229709725</v>
+        <v>0.006741725892192616</v>
       </c>
       <c r="T18">
-        <v>0.01769854846726308</v>
+        <v>0.00458960803478827</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>10.9205495</v>
+        <v>3.4338745</v>
       </c>
       <c r="H19">
-        <v>21.841099</v>
+        <v>6.867749</v>
       </c>
       <c r="I19">
-        <v>0.074677139257415</v>
+        <v>0.02318807445921414</v>
       </c>
       <c r="J19">
-        <v>0.05105565628982123</v>
+        <v>0.0155791330048516</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N19">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O19">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P19">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q19">
-        <v>1.980459852740833</v>
+        <v>0.8567848818701667</v>
       </c>
       <c r="R19">
-        <v>11.882759116445</v>
+        <v>5.140709291221</v>
       </c>
       <c r="S19">
-        <v>0.001480825521816297</v>
+        <v>0.0005456394858134661</v>
       </c>
       <c r="T19">
-        <v>0.001041133749566615</v>
+        <v>0.0003714584971612896</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>10.9205495</v>
+        <v>3.4338745</v>
       </c>
       <c r="H20">
-        <v>21.841099</v>
+        <v>6.867749</v>
       </c>
       <c r="I20">
-        <v>0.074677139257415</v>
+        <v>0.02318807445921414</v>
       </c>
       <c r="J20">
-        <v>0.05105565628982123</v>
+        <v>0.0155791330048516</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N20">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O20">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P20">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q20">
-        <v>8.263743614892499</v>
+        <v>1.43071179186425</v>
       </c>
       <c r="R20">
-        <v>33.05497445957</v>
+        <v>5.722847167457</v>
       </c>
       <c r="S20">
-        <v>0.006178950022008175</v>
+        <v>0.0009111421816361704</v>
       </c>
       <c r="T20">
-        <v>0.002896183383309779</v>
+        <v>0.000413522743240439</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>10.9205495</v>
+        <v>3.4338745</v>
       </c>
       <c r="H21">
-        <v>21.841099</v>
+        <v>6.867749</v>
       </c>
       <c r="I21">
-        <v>0.074677139257415</v>
+        <v>0.02318807445921414</v>
       </c>
       <c r="J21">
-        <v>0.05105565628982123</v>
+        <v>0.0155791330048516</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N21">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O21">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P21">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q21">
-        <v>3.892768196235333</v>
+        <v>0.4873789647836667</v>
       </c>
       <c r="R21">
-        <v>23.356609177412</v>
+        <v>2.924273788702</v>
       </c>
       <c r="S21">
-        <v>0.002910692932008871</v>
+        <v>0.0003103850375608724</v>
       </c>
       <c r="T21">
-        <v>0.002046440044079263</v>
+        <v>0.0002113028154878205</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>49.40604533333333</v>
+        <v>53.85273233333334</v>
       </c>
       <c r="H22">
-        <v>148.218136</v>
+        <v>161.558197</v>
       </c>
       <c r="I22">
-        <v>0.3378494944339103</v>
+        <v>0.3636536999757743</v>
       </c>
       <c r="J22">
-        <v>0.3464740582666641</v>
+        <v>0.3664864046555889</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N22">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O22">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P22">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q22">
-        <v>235.571680196688</v>
+        <v>361.4857477510689</v>
       </c>
       <c r="R22">
-        <v>2120.145121770192</v>
+        <v>3253.371729759619</v>
       </c>
       <c r="S22">
-        <v>0.176141190526851</v>
+        <v>0.2302105250751594</v>
       </c>
       <c r="T22">
-        <v>0.1857611198395099</v>
+        <v>0.235082846545578</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>49.40604533333333</v>
+        <v>53.85273233333334</v>
       </c>
       <c r="H23">
-        <v>148.218136</v>
+        <v>161.558197</v>
       </c>
       <c r="I23">
-        <v>0.3378494944339103</v>
+        <v>0.3636536999757743</v>
       </c>
       <c r="J23">
-        <v>0.3464740582666641</v>
+        <v>0.3664864046555889</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O23">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P23">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q23">
-        <v>152.3115256679573</v>
+        <v>166.0200035792814</v>
       </c>
       <c r="R23">
-        <v>1370.803731011616</v>
+        <v>1494.180032213532</v>
       </c>
       <c r="S23">
-        <v>0.1138860725521633</v>
+        <v>0.1057290707441264</v>
       </c>
       <c r="T23">
-        <v>0.120105946304414</v>
+        <v>0.1079667878131694</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>49.40604533333333</v>
+        <v>53.85273233333334</v>
       </c>
       <c r="H24">
-        <v>148.218136</v>
+        <v>161.558197</v>
       </c>
       <c r="I24">
-        <v>0.3378494944339103</v>
+        <v>0.3636536999757743</v>
       </c>
       <c r="J24">
-        <v>0.3464740582666641</v>
+        <v>0.3664864046555889</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N24">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O24">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P24">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q24">
-        <v>8.959868664608889</v>
+        <v>13.43677729357922</v>
       </c>
       <c r="R24">
-        <v>80.63881798147999</v>
+        <v>120.930995642213</v>
       </c>
       <c r="S24">
-        <v>0.006699455266569961</v>
+        <v>0.008557149418247586</v>
       </c>
       <c r="T24">
-        <v>0.007065345186497001</v>
+        <v>0.008738258352439434</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>49.40604533333333</v>
+        <v>53.85273233333334</v>
       </c>
       <c r="H25">
-        <v>148.218136</v>
+        <v>161.558197</v>
       </c>
       <c r="I25">
-        <v>0.3378494944339103</v>
+        <v>0.3636536999757743</v>
       </c>
       <c r="J25">
-        <v>0.3464740582666641</v>
+        <v>0.3664864046555889</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N25">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O25">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P25">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q25">
-        <v>37.38629559441333</v>
+        <v>22.43755244212017</v>
       </c>
       <c r="R25">
-        <v>224.31777356648</v>
+        <v>134.625314652721</v>
       </c>
       <c r="S25">
-        <v>0.02795440695541345</v>
+        <v>0.01428925140544946</v>
       </c>
       <c r="T25">
-        <v>0.01965408895350683</v>
+        <v>0.009727785452907388</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>49.40604533333333</v>
+        <v>53.85273233333334</v>
       </c>
       <c r="H26">
-        <v>148.218136</v>
+        <v>161.558197</v>
       </c>
       <c r="I26">
-        <v>0.3378494944339103</v>
+        <v>0.3636536999757743</v>
       </c>
       <c r="J26">
-        <v>0.3464740582666641</v>
+        <v>0.3664864046555889</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N26">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O26">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P26">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q26">
-        <v>17.61141066897422</v>
+        <v>7.643461907356223</v>
       </c>
       <c r="R26">
-        <v>158.502696020768</v>
+        <v>68.79115716620601</v>
       </c>
       <c r="S26">
-        <v>0.01316836913291251</v>
+        <v>0.004867703332791363</v>
       </c>
       <c r="T26">
-        <v>0.01388755798273641</v>
+        <v>0.004970726491494659</v>
       </c>
     </row>
   </sheetData>
